--- a/Neuro/PD_MorphProfileScreening/Fig6/Raw data/WB_raw_data.xlsx
+++ b/Neuro/PD_MorphProfileScreening/Fig6/Raw data/WB_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksilink-my.sharepoint.com/personal/johannes_wilbertz_ksilink_com/Documents/PD/SNCA_screening_paper/Figures/Fig5/Raw data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksilink-my.sharepoint.com/personal/johannes_wilbertz_ksilink_com/Documents/PD/SNCA_screening_paper/Figures/Fig6/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{A2674EDD-932A-4DE3-B529-2EC625756F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E175BFC-BAAD-41DD-84EC-216A8A901CB6}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{A2674EDD-932A-4DE3-B529-2EC625756F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC07ECF8-A67D-44AD-8584-0C81D749AE7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st experiment" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>VINC</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>SNCA-3x + Tyr A9 (0.3 uM)</t>
-  </si>
-  <si>
-    <t>SNCA-3x + TIC10 (1 uM)</t>
-  </si>
-  <si>
-    <t>SNCA-3x + TIC10 (2.5 uM)</t>
   </si>
   <si>
     <t>SNCA-3x + Tyr A9 (2.5 uM)</t>
@@ -212,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,14 +490,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -526,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -556,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -586,7 +580,7 @@
         <v>0.40518008011162776</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -616,7 +610,7 @@
         <v>0.38615590154006874</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -646,7 +640,7 @@
         <v>0.5132531280601601</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -676,7 +670,7 @@
         <v>0.59057768944205191</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -710,14 +704,14 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -770,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -800,7 +794,7 @@
         <v>0.11614707634790307</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -830,7 +824,7 @@
         <v>0.17234741790463132</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -860,7 +854,7 @@
         <v>0.24965946642957848</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -890,7 +884,7 @@
         <v>0.51562432376380185</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -920,7 +914,7 @@
         <v>0.32925622574839886</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -934,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -950,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -966,7 +960,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -990,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -1014,7 +1008,7 @@
         <v>0.61130503288973825</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1038,7 +1032,7 @@
         <v>0.39257669889615471</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1062,7 +1056,7 @@
         <v>0.65444149576988508</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -1086,7 +1080,7 @@
         <v>0.56425610583175079</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1123,14 +1117,14 @@
       <selection sqref="A1:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1168,11 +1162,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>0.45149698411638844</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1313,7 @@
         <v>0.36273100104080802</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1362,7 @@
         <v>0.53209496416616497</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1417,7 +1411,7 @@
         <v>0.28019054680515548</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1473,33 +1467,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F90E8-8838-4492-8844-D049FC3D7437}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1513,289 +1512,187 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.44184890119234704</v>
+      </c>
+      <c r="C3">
+        <v>0.5132531280601601</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>4.9617866348368379E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.40518008011162776</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0.58101344891783679</v>
+      </c>
+      <c r="C4">
+        <v>0.59057768944205191</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>9.2385346582508618E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.38615590154006874</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>0.44184890119234704</v>
-      </c>
-      <c r="C5">
-        <v>0.5132531280601601</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0.58101344891783679</v>
-      </c>
-      <c r="C6">
-        <v>0.59057768944205191</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>29</v>
+      <c r="B7">
+        <v>0.38034968059402485</v>
+      </c>
+      <c r="C7">
+        <v>0.24965946642957848</v>
+      </c>
+      <c r="D7">
+        <v>0.65444149576988508</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.62403449292956004</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.51562432376380185</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.56425610583175079</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>4.8301933963623395E-2</v>
+        <v>0.21486169651603379</v>
       </c>
       <c r="C9">
-        <v>0.11614707634790307</v>
+        <v>0.32925622574839886</v>
       </c>
       <c r="D9">
-        <v>0.61130503288973825</v>
+        <v>0.40677701047431702</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0.61454896715224872</v>
+      </c>
+      <c r="C11">
+        <v>0.53209496416616497</v>
+      </c>
+      <c r="D11">
+        <v>0.85976042560540489</v>
+      </c>
+      <c r="E11">
+        <v>0.74440641398175145</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1.6542248803901989</v>
+      </c>
+      <c r="C12">
+        <v>0.28019054680515548</v>
+      </c>
+      <c r="D12">
+        <v>0.79212099629463084</v>
+      </c>
+      <c r="E12">
+        <v>0.13416846628209628</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>0.10485196072918634</v>
-      </c>
-      <c r="C10">
-        <v>0.17234741790463132</v>
-      </c>
-      <c r="D10">
-        <v>0.39257669889615471</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0.38034968059402485</v>
-      </c>
-      <c r="C11">
-        <v>0.24965946642957848</v>
-      </c>
-      <c r="D11">
-        <v>0.65444149576988508</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>0.62403449292956004</v>
-      </c>
-      <c r="C12">
-        <v>0.51562432376380185</v>
-      </c>
-      <c r="D12">
-        <v>0.56425610583175079</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
       <c r="B13">
-        <v>0.21486169651603379</v>
+        <v>0.49576410171532026</v>
       </c>
       <c r="C13">
-        <v>0.32925622574839886</v>
+        <v>1.1174504648032679</v>
       </c>
       <c r="D13">
-        <v>0.40677701047431702</v>
+        <v>0.52026006202092723</v>
+      </c>
+      <c r="E13">
+        <v>1.1726642693820859</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>9.4029661887507998E-2</v>
-      </c>
-      <c r="C15">
-        <v>0.45149698411638844</v>
-      </c>
-      <c r="D15">
-        <v>0.13652620274538041</v>
-      </c>
-      <c r="E15">
-        <v>0.65555025462227023</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>7.0679601770741132E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.36273100104080802</v>
-      </c>
-      <c r="D16">
-        <v>0.11875992193088421</v>
-      </c>
-      <c r="E16">
-        <v>0.60948143858035408</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0.61454896715224872</v>
-      </c>
-      <c r="C17">
-        <v>0.53209496416616497</v>
-      </c>
-      <c r="D17">
-        <v>0.85976042560540489</v>
-      </c>
-      <c r="E17">
-        <v>0.74440641398175145</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>1.6542248803901989</v>
-      </c>
-      <c r="C18">
-        <v>0.28019054680515548</v>
-      </c>
-      <c r="D18">
-        <v>0.79212099629463084</v>
-      </c>
-      <c r="E18">
-        <v>0.13416846628209628</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>0.49576410171532026</v>
-      </c>
-      <c r="C19">
-        <v>1.1174504648032679</v>
-      </c>
-      <c r="D19">
-        <v>0.52026006202092723</v>
-      </c>
-      <c r="E19">
-        <v>1.1726642693820859</v>
-      </c>
-      <c r="F19">
         <v>3</v>
       </c>
     </row>
